--- a/HTML/0 Excel SRC Files/Home  Details + Cost.xlsx
+++ b/HTML/0 Excel SRC Files/Home  Details + Cost.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hema1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196F38B-51B5-4FEE-ACAD-5CB8BDC8FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93F1DD-F370-44B3-A64D-AD9962663ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="Almontal" sheetId="10" r:id="rId2"/>
-    <sheet name="Remain" sheetId="8" r:id="rId3"/>
-    <sheet name="Space" sheetId="7" r:id="rId4"/>
-    <sheet name="Rent" sheetId="6" r:id="rId5"/>
-    <sheet name="Wood" sheetId="5" r:id="rId6"/>
-    <sheet name="Electric Establishment" sheetId="3" r:id="rId7"/>
-    <sheet name="Live Costs" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Space" sheetId="7" r:id="rId3"/>
+    <sheet name="Rent" sheetId="6" r:id="rId4"/>
+    <sheet name="Wood" sheetId="5" r:id="rId5"/>
+    <sheet name="Electric Establishment" sheetId="3" r:id="rId6"/>
+    <sheet name="Live Costs" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
   <si>
     <t>Home Detatils</t>
   </si>
@@ -442,24 +441,6 @@
     <t>حساب تقريبي متبقي</t>
   </si>
   <si>
-    <t>المدة بالشهور</t>
-  </si>
-  <si>
-    <t>المبلغ تقريبي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الاجمالي </t>
-  </si>
-  <si>
-    <t>العفش</t>
-  </si>
-  <si>
-    <t>ميك اب</t>
-  </si>
-  <si>
-    <t>قاعة</t>
-  </si>
-  <si>
     <t>الالمونتال تقريبي</t>
   </si>
   <si>
@@ -562,21 +543,9 @@
     <t>ابن ابو احمد 4</t>
   </si>
   <si>
-    <t>دون وصل</t>
-  </si>
-  <si>
     <t>ملحوظات:</t>
   </si>
   <si>
-    <t>إجمالي المبلغ</t>
-  </si>
-  <si>
-    <t>للعروسة</t>
-  </si>
-  <si>
-    <t>تم دفع</t>
-  </si>
-  <si>
     <t>سعر ( سعد/المرج ) / اولاد خلف</t>
   </si>
   <si>
@@ -584,6 +553,48 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>21/8/2023</t>
+  </si>
+  <si>
+    <t>2/12/2023</t>
+  </si>
+  <si>
+    <t>3/1/2024</t>
+  </si>
+  <si>
+    <t>الباقي</t>
+  </si>
+  <si>
+    <t>خلص</t>
+  </si>
+  <si>
+    <t>دون وصل + مياه</t>
+  </si>
+  <si>
+    <t>الأصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن علي 6 شهور </t>
+  </si>
+  <si>
+    <t>شهر لل 3 مراتب 20 الف تقريبا</t>
+  </si>
+  <si>
+    <t>+ 5000 نقل تقريبا</t>
+  </si>
+  <si>
+    <t>ناقص الالمونتال</t>
+  </si>
+  <si>
+    <t>36000 الف</t>
+  </si>
+  <si>
+    <t>الدهان</t>
+  </si>
+  <si>
+    <t>القاعة</t>
   </si>
 </sst>
 </file>
@@ -758,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1180,12 +1191,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,6 +1425,45 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,6 +1494,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,15 +1525,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,9 +1915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,10 +1939,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>10</v>
@@ -1865,15 +1951,15 @@
         <v>15</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="68"/>
+      <c r="I1" s="81"/>
       <c r="L1" s="63" t="s">
         <v>131</v>
       </c>
@@ -1901,7 +1987,7 @@
         <v>128</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,8 +2015,8 @@
         <f>SUM(E2:E67)</f>
         <v>107353</v>
       </c>
-      <c r="L3" s="84" t="s">
-        <v>163</v>
+      <c r="L3" s="65" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,10 +2054,10 @@
         <v>300</v>
       </c>
       <c r="F5" s="50"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1991,7 +2077,7 @@
       </c>
       <c r="F6" s="50"/>
       <c r="L6" s="58" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,10 +2097,10 @@
         <v>5500</v>
       </c>
       <c r="F7" s="50"/>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="79"/>
       <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2035,7 +2121,7 @@
       </c>
       <c r="F8" s="50"/>
       <c r="L8" s="60" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2055,12 +2141,12 @@
         <v>600</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="H9" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="70"/>
+      <c r="H9" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="83"/>
       <c r="L9" s="61" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2123,7 +2209,7 @@
         <v>45112</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2146,7 +2232,7 @@
         <v>45112</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,7 +2790,7 @@
         <v>2200</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>118</v>
@@ -2724,7 +2810,7 @@
         <v>102</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C43" s="49" t="s">
         <v>118</v>
@@ -2741,7 +2827,7 @@
         <v>150</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C44" s="49" t="s">
         <v>118</v>
@@ -2755,7 +2841,7 @@
         <v>4470</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C45" s="49" t="s">
         <v>118</v>
@@ -2832,7 +2918,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,32 +2932,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="A1" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="71"/>
+        <v>135</v>
+      </c>
+      <c r="C2" s="84"/>
       <c r="D2" s="2">
         <v>1227422817</v>
       </c>
@@ -2887,7 +2975,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D3" s="33">
         <v>1450</v>
@@ -2904,16 +2992,18 @@
         <v>200</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="57">
         <v>3000</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -2923,7 +3013,7 @@
         <v>69.5</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D5" s="33">
         <v>750</v>
@@ -2940,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D6" s="64">
         <v>750</v>
@@ -2957,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="64">
         <v>1200</v>
@@ -2974,7 +3064,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D8" s="64">
         <v>1450</v>
@@ -2991,7 +3081,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D9" s="64">
         <v>850</v>
@@ -3008,32 +3098,32 @@
         <v>64</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D10" s="64">
         <v>750</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="55" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="57">
         <f>SUM(D3:D10)</f>
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G11" s="57"/>
     </row>
@@ -3184,176 +3274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E682F-579F-49F1-A50A-F3F887A5BA74}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <f>D2-E2</f>
-        <v>69</v>
-      </c>
-      <c r="D2" s="2">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C6" si="0">D3-E3</f>
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B5)</f>
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <f>D12-E6</f>
-        <v>139</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(C2:C5)</f>
-        <v>139</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBF378B-9D7E-418F-AFE6-79BBCB7FF5AB}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,10 +3288,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="91"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3425,12 +3350,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6F8391-6FB2-4C3C-BB9D-B261F65E0CF8}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,7 +3469,7 @@
         <v>750</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>36</v>
@@ -3558,20 +3483,26 @@
         <v>800</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>750</v>
+      </c>
       <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
@@ -3662,6 +3593,226 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E41FE30-60D5-425B-99F8-A0915611147C}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="56"/>
+    <col min="2" max="2" width="16.85546875" style="56" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="56"/>
+    <col min="6" max="6" width="22.7109375" style="56" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="56"/>
+    <col min="9" max="9" width="12.7109375" style="56" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="71">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>3000</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="76">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="75"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="75"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69">
+        <f>SUM(A2:A13)</f>
+        <v>26000</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="69">
+        <v>83500</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="70">
+        <f>C14-A14</f>
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="56" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3669,68 +3820,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E41FE30-60D5-425B-99F8-A0915611147C}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EAAA2D-02FC-42DD-9C2F-2D7FE999A82A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -3750,10 +3839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="95"/>
       <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
@@ -3811,10 +3900,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="93"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -3882,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846F116-2A87-4F05-8245-2425971A78BE}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -4120,11 +4209,11 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -4185,11 +4274,11 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4278,7 +4367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68177C62-F4EA-473A-B975-9AE1211A7F93}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/HTML/0 Excel SRC Files/Home  Details + Cost.xlsx
+++ b/HTML/0 Excel SRC Files/Home  Details + Cost.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93F1DD-F370-44B3-A64D-AD9962663ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2682C0F-DD21-46EC-8E69-21FD0EDCB39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="Almontal" sheetId="10" r:id="rId2"/>
-    <sheet name="Space" sheetId="7" r:id="rId3"/>
-    <sheet name="Rent" sheetId="6" r:id="rId4"/>
-    <sheet name="Wood" sheetId="5" r:id="rId5"/>
-    <sheet name="Electric Establishment" sheetId="3" r:id="rId6"/>
-    <sheet name="Live Costs" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="Rent" sheetId="6" r:id="rId3"/>
+    <sheet name="Wood" sheetId="5" r:id="rId4"/>
+    <sheet name="Live Costs" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="186">
   <si>
     <t>Home Detatils</t>
   </si>
@@ -595,6 +594,12 @@
   </si>
   <si>
     <t>القاعة</t>
+  </si>
+  <si>
+    <t>المجموع</t>
+  </si>
+  <si>
+    <t>طلع اسمه معرض منصور</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,6 +1469,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,6 +1486,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,10 +1512,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,15 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1913,11 +1919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,10 +1962,10 @@
       <c r="F1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="81"/>
+      <c r="I1" s="82"/>
       <c r="L1" s="63" t="s">
         <v>131</v>
       </c>
@@ -2054,10 +2060,10 @@
         <v>300</v>
       </c>
       <c r="F5" s="50"/>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -2097,10 +2103,10 @@
         <v>5500</v>
       </c>
       <c r="F7" s="50"/>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="80"/>
       <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2141,10 +2147,10 @@
         <v>600</v>
       </c>
       <c r="F9" s="50"/>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="L9" s="61" t="s">
         <v>148</v>
       </c>
@@ -2254,6 +2260,9 @@
       <c r="F14" s="51">
         <v>45112</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2295,7 +2304,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>1200</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>30</v>
       </c>
@@ -2334,8 +2343,12 @@
       <c r="F18" s="51">
         <v>45120</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L18" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="86"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>600</v>
       </c>
@@ -2354,8 +2367,14 @@
       <c r="F19" s="51">
         <v>45121</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>450</v>
       </c>
@@ -2374,8 +2393,14 @@
       <c r="F20" s="51">
         <v>45121</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>1000</v>
       </c>
@@ -2394,8 +2419,14 @@
       <c r="F21" s="51">
         <v>45121</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>80</v>
       </c>
@@ -2414,8 +2445,14 @@
       <c r="F22" s="51">
         <v>45121</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>45</v>
       </c>
@@ -2434,8 +2471,14 @@
       <c r="F23" s="51">
         <v>45128</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>270</v>
       </c>
@@ -2454,8 +2497,9 @@
       <c r="F24" s="51">
         <v>45163</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>800</v>
       </c>
@@ -2474,8 +2518,12 @@
       <c r="F25" s="52">
         <v>45163</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L25" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>750</v>
       </c>
@@ -2495,7 +2543,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1400</v>
       </c>
@@ -2511,7 +2559,7 @@
       </c>
       <c r="F27" s="49"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>10</v>
       </c>
@@ -2531,7 +2579,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>35</v>
       </c>
@@ -2551,7 +2599,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>350</v>
       </c>
@@ -2569,7 +2617,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3750</v>
       </c>
@@ -2589,7 +2637,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -2893,11 +2941,12 @@
       <c r="A52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" location="Space!A1" display="مساحة الشقة" xr:uid="{25C1B918-00BC-412A-8A07-FD076296A153}"/>
@@ -2918,7 +2967,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,11 +2981,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2959,7 +3008,7 @@
       <c r="B2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="2">
         <v>1227422817</v>
       </c>
@@ -2997,10 +3046,10 @@
       <c r="D4" s="33">
         <v>0</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="89"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="57">
         <v>3000</v>
       </c>
@@ -3110,11 +3159,11 @@
       <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="57">
         <f>SUM(D3:D10)</f>
         <v>7200</v>
@@ -3274,88 +3323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBF378B-9D7E-418F-AFE6-79BBCB7FF5AB}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6F8391-6FB2-4C3C-BB9D-B261F65E0CF8}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,10 +3477,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="14">
+        <v>750</v>
+      </c>
+      <c r="B11" s="40">
+        <v>45338</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -3594,17 +3574,30 @@
       <c r="C25" s="27"/>
       <c r="D25" s="17"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <f>SUM(A2:A25)</f>
+        <v>7550</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E41FE30-60D5-425B-99F8-A0915611147C}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,171 +3812,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EAAA2D-02FC-42DD-9C2F-2D7FE999A82A}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="0.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="14.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="93"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846F116-2A87-4F05-8245-2425971A78BE}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -4209,11 +4051,11 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -4274,11 +4116,11 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4358,21 +4200,100 @@
       </c>
       <c r="C27" s="2"/>
     </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="99"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="97"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68177C62-F4EA-473A-B975-9AE1211A7F93}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
